--- a/biology/Histoire de la zoologie et de la botanique/Carl_August_Bolle/Carl_August_Bolle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_August_Bolle/Carl_August_Bolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl (ou Karl) August Bolle est un naturaliste et un collectionneur prussien, né le 21 novembre 1821 à Schöneberg et mort le 17 février 1909 à Berlin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père David Bolle et sa mère Henriette Marggraf possèdent une brasserie prospère. Il fait ses études secondaires au Collège français de Berlin puis étudie à partir de 1841 la médecine et l’histoire naturelle à Berlin et à Bonn. En 1846, il obtient un doctorat de médecine après avoir soutenu sa thèse : De vegetatione alpina in Germania extra Alpes obvia (Sur la végétation en Allemagne en dehors des Alpes). Cependant, il n'exerça jamais le métier de médecin et se consacra entièrement à l'histoire naturelle.
 Il visite les îles du Cap-Vert et les îles Canaries en 1852 et 1856. Il publia  en 1857 Mein zweiter Beitrag zur Vogelkunde der Canarischen Inseln (Ma deuxième contribution à l'ornithologie des îles Canaries).
